--- a/doc/template.xlsx
+++ b/doc/template.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27217"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F410967-54AE-4D37-8E09-E8F39B08832F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="-15" windowWidth="16725" windowHeight="12705"/>
+    <workbookView xWindow="12120" yWindow="-15" windowWidth="16725" windowHeight="12705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +15,28 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$2:$I$43</definedName>
   </definedNames>
-  <calcPr calcId="162912"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>平成　　　年　　月　　日</t>
   </si>
@@ -61,6 +78,12 @@
     <t>${id}</t>
   </si>
   <si>
+    <t>レシート番号</t>
+  </si>
+  <si>
+    <t>${receipt_number}</t>
+  </si>
+  <si>
     <t>　ご利用店舗</t>
   </si>
   <si>
@@ -124,7 +147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -170,7 +193,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -256,20 +279,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -279,38 +325,53 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -330,9 +391,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -370,7 +431,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -442,7 +503,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -615,16 +676,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:I44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:I8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.375" customWidth="1"/>
     <col min="2" max="2" width="10.875" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
@@ -636,504 +697,440 @@
     <col min="10" max="10" width="1.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="2" customFormat="1" ht="5.25" customHeight="1"/>
-    <row r="2" spans="2:9" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+    <row r="1" spans="2:9" ht="5.25" customHeight="1"/>
+    <row r="2" spans="2:9" ht="23.25" customHeight="1">
       <c r="I2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="5" t="s">
+    <row r="3" spans="2:9" ht="22.5" customHeight="1">
+      <c r="C3" s="20"/>
+      <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="2:9" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="5" t="s">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="2:9" ht="22.5" customHeight="1">
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="2:9" ht="14.25" thickTop="1">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="2:9" ht="14.25" thickTop="1"/>
     <row r="6" spans="2:9" ht="39" customHeight="1">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="2:9" ht="10.5" customHeight="1" thickBot="1">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9" ht="10.5" customHeight="1" thickBot="1"/>
     <row r="8" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="2:9" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B9" s="5" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="2:9" ht="26.25" customHeight="1">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B11" s="11"/>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B12" s="11"/>
-      <c r="C12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B13" s="11"/>
-      <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B14" s="11"/>
-      <c r="C14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B15" s="11"/>
-      <c r="C15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="2:9" ht="167.25" customHeight="1">
-      <c r="B16" s="11"/>
-      <c r="C16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="2:9" ht="9.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
+      <c r="B16" s="14"/>
+      <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="2:9" ht="9.75" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="18" spans="2:9" ht="18" customHeight="1" thickTop="1">
-      <c r="B18" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+      <c r="B18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="2:9" ht="18" customHeight="1">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="2:9" ht="18" customHeight="1">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="2:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-    </row>
-    <row r="22" spans="2:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="23" spans="2:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="2:9" ht="18" customHeight="1">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="2:9" ht="18" customHeight="1">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="2:9" ht="18" customHeight="1">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="2:9" ht="18" customHeight="1" thickBot="1">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="2:9" ht="15" thickTop="1" thickBot="1">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="2:9" ht="15" thickTop="1" thickBot="1"/>
     <row r="26" spans="2:9" ht="18" customHeight="1" thickTop="1">
-      <c r="B26" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="2:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-    </row>
-    <row r="28" spans="2:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-    </row>
-    <row r="29" spans="2:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
+      <c r="B26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="2:9" ht="18" customHeight="1">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="2:9" ht="18" customHeight="1">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="2:9" ht="18" customHeight="1">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" spans="2:9" ht="18" customHeight="1">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="2:9" ht="18" customHeight="1">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
     </row>
     <row r="32" spans="2:9" ht="18" customHeight="1" thickBot="1">
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="2:9" ht="15" thickTop="1" thickBot="1">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="2:9" ht="15" thickTop="1" thickBot="1"/>
     <row r="34" spans="2:9" ht="18" customHeight="1" thickTop="1">
-      <c r="B34" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-    </row>
-    <row r="35" spans="2:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-    </row>
-    <row r="36" spans="2:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-    </row>
-    <row r="37" spans="2:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
+      <c r="B34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="2:9" ht="18" customHeight="1">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="2:9" ht="18" customHeight="1">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="2:9" ht="18" customHeight="1">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
     </row>
     <row r="38" spans="2:9" ht="18" customHeight="1">
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
     </row>
     <row r="39" spans="2:9" ht="18" customHeight="1">
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
     </row>
     <row r="40" spans="2:9" ht="18" customHeight="1" thickBot="1">
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-    </row>
-    <row r="41" spans="2:9" ht="15" thickTop="1" thickBot="1">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-    </row>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="2:9" ht="15" thickTop="1" thickBot="1"/>
     <row r="42" spans="2:9" ht="21" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B42" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="5" t="s">
+      <c r="B42" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="C42" s="9"/>
+      <c r="F42" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="43" spans="2:9" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" ht="5.25" customHeight="1" thickTop="1">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-    </row>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="5.25" customHeight="1" thickTop="1"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="22">
+  <mergeCells count="23">
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="D12:I12"/>
     <mergeCell ref="B18:B24"/>
     <mergeCell ref="B26:B32"/>
     <mergeCell ref="B34:B40"/>
@@ -1144,18 +1141,6 @@
     <mergeCell ref="C18:I24"/>
     <mergeCell ref="C26:I32"/>
     <mergeCell ref="C34:I40"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -1165,7 +1150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1180,7 +1165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
